--- a/Challenge 1/Case Sensores/Defective_Equipment (rev 2024-02-21) - Análise direto no Excel.xlsx
+++ b/Challenge 1/Case Sensores/Defective_Equipment (rev 2024-02-21) - Análise direto no Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\GitHub\I2A2\Challenges\Challenge1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\GitHub\I2A2\Challenge 1\Case Sensores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E9FEFF-D2D9-4D35-B445-3C9AA8515F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23096386-FABB-4CFD-9E79-C93CAC84593A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="12360" xr2:uid="{104EDFC2-6C8C-480B-9353-64BC4CBF27D3}"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="15360" windowHeight="12360" xr2:uid="{104EDFC2-6C8C-480B-9353-64BC4CBF27D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -480,7 +480,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E673A9E-0DA9-4844-B3F5-0E2F0E2C9208}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
